--- a/Benchmark/YNQ_Benchmark.xlsx
+++ b/Benchmark/YNQ_Benchmark.xlsx
@@ -2905,7 +2905,7 @@
     <t>Does the bird in the picture have brown tail?</t>
   </si>
   <si>
-    <t>Is the primary color of the trees in the picture yellow?</t>
+    <t>Is the main color of the trees in the picture yellow?</t>
   </si>
   <si>
     <t>Are the bird's wings green in color in the picture?</t>
@@ -5107,7 +5107,7 @@
     <t>Are there exactly 5 butterflies that are not predominantly green in color but very colorful in the picture?</t>
   </si>
   <si>
-    <t>Are there exactly 5 typical spoons in the picture?</t>
+    <t>Are there exactly 6 typical spoons in the picture?</t>
   </si>
   <si>
     <t>Are there exactly 4 glasses in the picture?</t>
@@ -5326,7 +5326,7 @@
     <t>Are there exactly 2 scissors in the picture?</t>
   </si>
   <si>
-    <t>Are there exactly 5 cushions depicted in the picture?</t>
+    <t>Are there exactly 5 pillows depicted in the picture?</t>
   </si>
   <si>
     <t>Are there exactly 4 paintings in the picture?</t>

--- a/Benchmark/YNQ_Benchmark.xlsx
+++ b/Benchmark/YNQ_Benchmark.xlsx
@@ -4249,7 +4249,7 @@
     <t>Is the second largest apple green?</t>
   </si>
   <si>
-    <t>Is the 3 largest apples green and in the center of the image?</t>
+    <t>Are the 3 largest apples green and in the center of the image?</t>
   </si>
   <si>
     <t>Is one of the two largest watermelons on the left of the image?</t>
@@ -4513,7 +4513,7 @@
     <t>Is the largest cushion placed on the sofa on the left?</t>
   </si>
   <si>
-    <t>Is the tallest depicting a standing man?</t>
+    <t>Is the tallest statue depicting a standing man?</t>
   </si>
   <si>
     <t>Is the green potted plant shorter than the red and pink potted plant?</t>
